--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H2">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>6.436193658327332</v>
+        <v>9.325651899165557</v>
       </c>
       <c r="R2">
-        <v>57.925742924946</v>
+        <v>83.93086709249</v>
       </c>
       <c r="S2">
-        <v>0.1027049795522364</v>
+        <v>0.08413518251524532</v>
       </c>
       <c r="T2">
-        <v>0.1027049795522363</v>
+        <v>0.08413518251524532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H3">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>10.37399746370667</v>
+        <v>15.80811841204445</v>
       </c>
       <c r="R3">
-        <v>93.36597717336001</v>
+        <v>142.2730657084</v>
       </c>
       <c r="S3">
-        <v>0.1655421284607278</v>
+        <v>0.1426194052920823</v>
       </c>
       <c r="T3">
-        <v>0.1655421284607278</v>
+        <v>0.1426194052920823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H4">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>3.277493309650333</v>
+        <v>15.03830282945833</v>
       </c>
       <c r="R4">
-        <v>29.497439786853</v>
+        <v>135.344725465125</v>
       </c>
       <c r="S4">
-        <v>0.05230030375402189</v>
+        <v>0.1356741991827101</v>
       </c>
       <c r="T4">
-        <v>0.05230030375402188</v>
+        <v>0.1356741991827102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H5">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>1.662007103594</v>
+        <v>2.666971208232223</v>
       </c>
       <c r="R5">
-        <v>14.958063932346</v>
+        <v>24.00274087409</v>
       </c>
       <c r="S5">
-        <v>0.02652132838940317</v>
+        <v>0.024061171464871</v>
       </c>
       <c r="T5">
-        <v>0.02652132838940316</v>
+        <v>0.02406117146487101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H6">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>5.249455803733556</v>
+        <v>4.991491525133556</v>
       </c>
       <c r="R6">
-        <v>47.24510223360201</v>
+        <v>44.923423726202</v>
       </c>
       <c r="S6">
-        <v>0.08376771731926706</v>
+        <v>0.04503278216164053</v>
       </c>
       <c r="T6">
-        <v>0.08376771731926705</v>
+        <v>0.04503278216164054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H7">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
-        <v>8.461187478924447</v>
+        <v>8.461187478924444</v>
       </c>
       <c r="R7">
-        <v>76.15068731032002</v>
+        <v>76.15068731032</v>
       </c>
       <c r="S7">
-        <v>0.1350186357252051</v>
+        <v>0.07633606320848353</v>
       </c>
       <c r="T7">
-        <v>0.1350186357252051</v>
+        <v>0.07633606320848355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H8">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>2.673172559651222</v>
+        <v>8.049148942858332</v>
       </c>
       <c r="R8">
-        <v>24.058553036861</v>
+        <v>72.442340485725</v>
       </c>
       <c r="S8">
-        <v>0.04265690991497122</v>
+        <v>0.07261868904418101</v>
       </c>
       <c r="T8">
-        <v>0.04265690991497122</v>
+        <v>0.07261868904418103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H9">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>1.355557849711334</v>
+        <v>1.427478135320222</v>
       </c>
       <c r="R9">
-        <v>12.200020647402</v>
+        <v>12.847303217882</v>
       </c>
       <c r="S9">
-        <v>0.02163119207209464</v>
+        <v>0.01287857779276914</v>
       </c>
       <c r="T9">
-        <v>0.02163119207209463</v>
+        <v>0.01287857779276915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H10">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>3.120531505476666</v>
+        <v>8.879636204801777</v>
       </c>
       <c r="R10">
-        <v>28.08478354929</v>
+        <v>79.91672584321599</v>
       </c>
       <c r="S10">
-        <v>0.04979559992689558</v>
+        <v>0.08011126952173993</v>
       </c>
       <c r="T10">
-        <v>0.04979559992689558</v>
+        <v>0.08011126952173994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H11">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>5.029740812933333</v>
+        <v>15.05206736206222</v>
       </c>
       <c r="R11">
-        <v>45.2676673164</v>
+        <v>135.46860625856</v>
       </c>
       <c r="S11">
-        <v>0.080261635178892</v>
+        <v>0.1357983815428697</v>
       </c>
       <c r="T11">
-        <v>0.08026163517889198</v>
+        <v>0.1357983815428697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H12">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>1.589063610371666</v>
+        <v>14.31906956286666</v>
       </c>
       <c r="R12">
-        <v>14.301572493345</v>
+        <v>128.8716260658</v>
       </c>
       <c r="S12">
-        <v>0.02535733917814388</v>
+        <v>0.1291853421237049</v>
       </c>
       <c r="T12">
-        <v>0.02535733917814388</v>
+        <v>0.1291853421237049</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H13">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N13">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O13">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P13">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q13">
-        <v>0.80580942781</v>
+        <v>2.539418622295111</v>
       </c>
       <c r="R13">
-        <v>7.252284850289999</v>
+        <v>22.854767600656</v>
       </c>
       <c r="S13">
-        <v>0.01285863123449482</v>
+        <v>0.02291040364572576</v>
       </c>
       <c r="T13">
-        <v>0.01285863123449481</v>
+        <v>0.02291040364572577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H14">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I14">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J14">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N14">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q14">
-        <v>3.738253934399111</v>
+        <v>0.9323127189828889</v>
       </c>
       <c r="R14">
-        <v>33.644285409592</v>
+        <v>8.390814470845999</v>
       </c>
       <c r="S14">
-        <v>0.05965284984810529</v>
+        <v>0.008411240481743552</v>
       </c>
       <c r="T14">
-        <v>0.05965284984810527</v>
+        <v>0.008411240481743553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H15">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I15">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J15">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N15">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O15">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P15">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q15">
-        <v>6.02539931096889</v>
+        <v>1.580383872151111</v>
       </c>
       <c r="R15">
-        <v>54.22859379872001</v>
+        <v>14.22345484936</v>
       </c>
       <c r="S15">
-        <v>0.0961497658210529</v>
+        <v>0.0142580794313673</v>
       </c>
       <c r="T15">
-        <v>0.09614976582105288</v>
+        <v>0.0142580794313673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H16">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I16">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J16">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N16">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q16">
-        <v>1.903625482728444</v>
+        <v>1.503423154908333</v>
       </c>
       <c r="R16">
-        <v>17.132629344556</v>
+        <v>13.530808394175</v>
       </c>
       <c r="S16">
-        <v>0.03037693187273539</v>
+        <v>0.01356374684617777</v>
       </c>
       <c r="T16">
-        <v>0.03037693187273538</v>
+        <v>0.01356374684617777</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H17">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I17">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J17">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N17">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O17">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P17">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q17">
-        <v>0.9653228171546667</v>
+        <v>0.2666249186095556</v>
       </c>
       <c r="R17">
-        <v>8.687905354391999</v>
+        <v>2.399624267486</v>
       </c>
       <c r="S17">
-        <v>0.01540405175175277</v>
+        <v>0.002405465744688005</v>
       </c>
       <c r="T17">
-        <v>0.01540405175175277</v>
+        <v>0.002405465744688006</v>
       </c>
     </row>
   </sheetData>
